--- a/municipal/ვაჭრობა/ბაზრების და ბაზრობების საფინანსო მაჩვენებლები/კახეთი/დედოფლისწყაროს მუნიციპალიტეტი.xlsx
+++ b/municipal/ვაჭრობა/ბაზრების და ბაზრობების საფინანსო მაჩვენებლები/კახეთი/დედოფლისწყაროს მუნიციპალიტეტი.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\ვაჭრობა ქარ. EN\ბაზრების და ბაზრობების  საფინანსო მაჩვენებლები\კახეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\მომსახურება\ბაზრები მუნიციპალიტეტები\ბ&amp;ბ საფინანსო მაჩვენებლები\ბაზრების და ბაზრობების  საფინანსო მაჩვენებლები\კახეთი\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCD8C7D-70A0-4F9A-8F32-59CA2775A70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="0" windowWidth="13500" windowHeight="15585"/>
+    <workbookView xWindow="1425" yWindow="1425" windowWidth="18240" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="დედოფლისწყაროს მუნიციპალიტეტი" sheetId="1" r:id="rId1"/>
@@ -24,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="11">
-  <si>
-    <t>(დეკლარირებული მონაცემები, ათასი ლარი)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="11">
   <si>
     <t>შემოსავლები, სულ</t>
   </si>
@@ -51,9 +49,6 @@
   </si>
   <si>
     <t>სხვა ხარჯები</t>
-  </si>
-  <si>
-    <t>... - მონაცემი არ არის ან კონფიდენციალურია</t>
   </si>
   <si>
     <r>
@@ -81,15 +76,40 @@
       <t>ფინანსური მაჩვენებლები დედოფლისწყაროს მუნიციპალიტეტში</t>
     </r>
   </si>
+  <si>
+    <t>(დეკლარირებული მონაცემები, ერთეული)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>შენიშვნა:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> „ ...“ - მონაცემი არ არის ან კონფიდენციალურია.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ##0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +164,14 @@
       <name val="Sylfaen"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -159,7 +187,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -187,22 +215,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -217,9 +254,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -229,11 +263,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -241,17 +272,29 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,16 +575,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="19" customWidth="1"/>
-    <col min="2" max="10" width="14.42578125" style="2" customWidth="1"/>
-    <col min="11" max="256" width="9.140625" style="2"/>
+    <col min="1" max="1" width="35.85546875" style="16" customWidth="1"/>
+    <col min="2" max="21" width="7.7109375" style="2" customWidth="1"/>
+    <col min="22" max="256" width="9.140625" style="2"/>
     <col min="257" max="257" width="35.85546875" style="2" customWidth="1"/>
     <col min="258" max="266" width="14.42578125" style="2" customWidth="1"/>
     <col min="267" max="512" width="9.140625" style="2"/>
@@ -735,7 +778,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -749,7 +792,7 @@
     </row>
     <row r="2" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -788,328 +831,362 @@
       <c r="J3" s="6">
         <v>2021</v>
       </c>
+      <c r="K3" s="6">
+        <v>2022</v>
+      </c>
+      <c r="L3" s="6">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="10"/>
+    </row>
+    <row r="5" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="11"/>
+      <c r="B5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="14"/>
     </row>
-    <row r="5" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+    <row r="6" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="16"/>
+      <c r="B6" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="14"/>
     </row>
-    <row r="6" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+    <row r="7" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="16"/>
+      <c r="B7" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="14"/>
     </row>
-    <row r="7" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+    <row r="8" spans="1:20" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="16"/>
+      <c r="B8" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="10"/>
     </row>
-    <row r="8" spans="1:20" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+    <row r="9" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="11"/>
+      <c r="B9" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="14"/>
     </row>
-    <row r="9" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+    <row r="10" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="16"/>
+      <c r="B10" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="14"/>
     </row>
-    <row r="10" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="16"/>
-    </row>
-    <row r="11" spans="1:20" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
+    <row r="11" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
